--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_shortage.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_shortage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,45 +456,50 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>ed_simul</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>log_w_simul</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>cf1_simul</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cf10_simul</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>diffcpicf_simul</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>grpe_shock_series</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>grpf_shock_series</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>vu_shock_series</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>excess_demand_shock_series</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>gscpi_shock_series</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>gcu_shock_series</t>
         </is>
@@ -540,6 +545,9 @@
       <c r="M2" t="n">
         <v>0</v>
       </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -581,6 +589,9 @@
       <c r="M3" t="n">
         <v>0</v>
       </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -622,6 +633,9 @@
       <c r="M4" t="n">
         <v>0</v>
       </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -663,6 +677,9 @@
       <c r="M5" t="n">
         <v>0</v>
       </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -678,20 +695,20 @@
         <v>9.700598551120983</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.07847052972712629</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>0.03163936057042013</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.260437819448206</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
@@ -702,6 +719,9 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -710,28 +730,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03982084007150918</v>
+        <v>0.04195171580355857</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2315618983989075</v>
+        <v>-0.2297134114570111</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2799133158451255</v>
+        <v>0.2898132244907143</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1420842905921669</v>
+        <v>8.739940792408035e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03032436636108263</v>
+        <v>0.0001048792895088964</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2025473448484792</v>
+        <v>0.1422235289618396</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.03038050734800638</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.2030094665839532</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -743,6 +763,9 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -751,28 +774,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05728328559017157</v>
+        <v>0.06017901431066482</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2459759550429909</v>
+        <v>0.2617593699536004</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4360460821061045</v>
+        <v>0.5719087711682636</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02685809718285222</v>
+        <v>0.0002038688088863506</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01892157558843703</v>
+        <v>0.0002553268252855584</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2640413336092269</v>
+        <v>0.02833005715894847</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.01946722547268143</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.2684493090723534</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -784,6 +807,9 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -792,28 +818,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04539729422022063</v>
+        <v>0.04848974659380253</v>
       </c>
       <c r="C9" t="n">
-        <v>0.165884048950426</v>
+        <v>0.1638631461518752</v>
       </c>
       <c r="D9" t="n">
-        <v>2.447027058155475</v>
+        <v>2.444569816988664</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06089902163788241</v>
+        <v>0.0002844565284494998</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03055720665030808</v>
+        <v>0.0003765511917700648</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3055123458468334</v>
+        <v>0.06324146310830375</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.03109687544785907</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.3094150956103222</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -825,6 +851,9 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -833,28 +862,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06797927350874111</v>
+        <v>0.07539903946780713</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1244287113750997</v>
+        <v>-0.1078907429676302</v>
       </c>
       <c r="D10" t="n">
-        <v>2.584543395234713</v>
+        <v>2.678671293246409</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0334098762993021</v>
+        <v>0.0004204036685502379</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02085811668265083</v>
+        <v>0.0005650487904395826</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06450318117227385</v>
+        <v>0.03504591379073607</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.02162464985340131</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0.05646593930691772</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -866,6 +895,9 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -874,28 +906,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02447615250489241</v>
+        <v>0.03408552663305311</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06735031487146471</v>
+        <v>0.07753846042161035</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3613778009509187</v>
+        <v>0.4459569355105933</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0180747637113791</v>
+        <v>0.0004550557366195836</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01926820590064464</v>
+        <v>0.0006502626070222153</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05338888871972144</v>
+        <v>0.02162046569246757</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.02048508893183175</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-0.04340597057197565</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -907,6 +939,9 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -915,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02382235466447535</v>
+        <v>0.02808162799354178</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000971704694519163</v>
+        <v>0.008876993728155265</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8444344994433235</v>
+        <v>0.9269812851120358</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02775828077230954</v>
+        <v>0.0004775089150940346</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02173634923982216</v>
+        <v>0.0007204666770060698</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0005862421024753449</v>
+        <v>0.03078546608905249</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.02292943050234113</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.007266907174554194</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -948,6 +983,9 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -956,28 +994,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02425378715933294</v>
+        <v>0.03182571791156414</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.04725429871117053</v>
+        <v>-0.03718226362219326</v>
       </c>
       <c r="D13" t="n">
-        <v>1.297301878052544</v>
+        <v>1.346815001956873</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01240776069269442</v>
+        <v>0.0005106504423835329</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01798573308147688</v>
+        <v>0.0008000309717849801</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08673926926795399</v>
+        <v>0.01549204329876462</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.01936687787559399</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-0.07790585121831822</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -989,6 +1027,9 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -997,28 +1038,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01611010762957559</v>
+        <v>0.01988569662178888</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01525112716404652</v>
+        <v>0.02440094538178463</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8109636050027589</v>
+        <v>0.9027830328670087</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01136593717584176</v>
+        <v>0.0005172597082504661</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0180633173892927</v>
+        <v>0.0008497452133394523</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02433016429458713</v>
+        <v>0.01462128777577482</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.01962203923501579</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0.01663737981339683</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1030,6 +1071,9 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1038,28 +1082,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02189315701418361</v>
+        <v>0.02476575486882537</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.02228918329449336</v>
+        <v>-0.01652365631117228</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3818091117549009</v>
+        <v>0.4564927937974595</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01542541079972928</v>
+        <v>0.0005378045171780632</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01795069000248739</v>
+        <v>0.0009116596005115157</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.03140492624815366</v>
+        <v>0.01849103133458889</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.01952881675588819</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-0.02672746089832398</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1071,6 +1115,9 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1079,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01736434116822036</v>
+        <v>0.02106608728653238</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.008218901385796784</v>
+        <v>-0.001601414242743571</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5817909132417898</v>
+        <v>0.6454670828016646</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01057392632971987</v>
+        <v>0.0005511050863681012</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01676333654537896</v>
+        <v>0.0009643248187278467</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.04338609482916309</v>
+        <v>0.01337006636870245</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.01839982755661554</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-0.03851206328763361</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1112,6 +1159,9 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1120,28 +1170,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01663386472216431</v>
+        <v>0.01809760263478323</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005093955410991891</v>
+        <v>0.005308478258821379</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5603974392103843</v>
+        <v>0.6254253261766005</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01182239992374395</v>
+        <v>0.000559077274645368</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01688787580128024</v>
+        <v>0.001009568825314805</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01609465118648053</v>
+        <v>0.01455022549069578</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.01858064102131974</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-0.01259595502709208</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1153,6 +1203,9 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1161,28 +1214,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01738711078512824</v>
+        <v>0.01917641423982546</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.009855230070641962</v>
+        <v>-0.006102021045958032</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3398820176652569</v>
+        <v>0.4094998494804828</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01196651011341871</v>
+        <v>0.0005713113508187592</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01637182566485755</v>
+        <v>0.001057509860914368</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02132941697829999</v>
+        <v>0.01438641645398581</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.0180551820468208</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-0.01935094111103794</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1194,6 +1247,9 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1202,28 +1258,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01515706881261992</v>
+        <v>0.01686918653025805</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001971267636270401</v>
+        <v>0.005375245912070571</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2752342168756818</v>
+        <v>0.334550441368078</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01150262083405406</v>
+        <v>0.0005794018550808264</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01602898318186907</v>
+        <v>0.001099682827240014</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01932377786949657</v>
+        <v>0.01376445169642299</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.01772578662387206</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-0.0177459591140413</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1235,6 +1291,9 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,28 +1302,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0153730892791601</v>
+        <v>0.01640733598523521</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002039167762831778</v>
+        <v>0.004591183881140559</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3082868679820374</v>
+        <v>0.3637962985581185</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01253468191366259</v>
+        <v>0.0005877665005679188</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01598198004926005</v>
+        <v>0.001140701167203101</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01190777611233002</v>
+        <v>0.01465490186053184</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.01767812258456041</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-0.01107684461718383</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1276,6 +1335,9 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1284,28 +1346,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01481991243563952</v>
+        <v>0.01616158069128264</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004164225130380509</v>
+        <v>0.002668098468980225</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2459814485831897</v>
+        <v>0.3014884467760539</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0122756078829957</v>
+        <v>0.000596761929681319</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01564252447722134</v>
+        <v>0.001181105118931308</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01317949296336939</v>
+        <v>0.01423075657802861</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.01732866233723779</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>-0.01291709868663745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1317,6 +1379,9 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1325,28 +1390,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01412960263431348</v>
+        <v>0.0153205362366678</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00554404303531288</v>
+        <v>0.0076366205159167</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1743791741466775</v>
+        <v>0.2275658600278036</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01239149617807128</v>
+        <v>0.0006048221621647511</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01548632413725676</v>
+        <v>0.001219406459522978</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.009473784876555431</v>
+        <v>0.014265350747762</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.01717291911873528</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-0.009318629259458795</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1358,6 +1423,9 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1366,28 +1434,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01429721323653066</v>
+        <v>0.01543780700078001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.005353209069436882</v>
+        <v>0.007058318569027793</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1616573891645109</v>
+        <v>0.2096712874354043</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01290639980358286</v>
+        <v>0.0006141704669545783</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01537715408820685</v>
+        <v>0.001258000977024928</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.00816441023889916</v>
+        <v>0.01470950850644495</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.01705570115022621</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>-0.008275896337656675</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1399,6 +1467,9 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1407,28 +1478,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0139149307660979</v>
+        <v>0.01520439050839665</v>
       </c>
       <c r="C24" t="n">
-        <v>0.006197633938105759</v>
+        <v>0.007976048120217686</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1508366164043681</v>
+        <v>0.1971049422950687</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01290795166318898</v>
+        <v>0.0006238257283027191</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01519601115435734</v>
+        <v>0.001296011953295919</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.008156854774689195</v>
+        <v>0.01464557054616685</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.01686981665235186</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-0.00832013044199624</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1440,6 +1511,9 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,28 +1522,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01377587203772862</v>
+        <v>0.01502301128014476</v>
       </c>
       <c r="C25" t="n">
-        <v>0.007865661621410549</v>
+        <v>0.009594441834610105</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1165109474170585</v>
+        <v>0.1615597456116979</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01307534877425103</v>
+        <v>0.0006338256208154525</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0150929286984007</v>
+        <v>0.001333569481496281</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.006035470966929186</v>
+        <v>0.01479757637156512</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.01676815670777526</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-0.006164399318085538</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1481,6 +1555,9 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1489,28 +1566,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01382406510171008</v>
+        <v>0.01513831947708381</v>
       </c>
       <c r="C26" t="n">
-        <v>0.008214294037353218</v>
+        <v>0.009873262602419136</v>
       </c>
       <c r="D26" t="n">
-        <v>0.09396860783988217</v>
+        <v>0.1363411450588683</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01324987831821806</v>
+        <v>0.0006448045627278355</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01499111665879596</v>
+        <v>0.00137141528018899</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.00548379651149468</v>
+        <v>0.01495143700104583</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.01666368648432691</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-0.005639832966193315</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1522,6 +1599,9 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1530,28 +1610,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01371963249322187</v>
+        <v>0.01510100823736548</v>
       </c>
       <c r="C27" t="n">
-        <v>0.009206135790746134</v>
+        <v>0.01097079931678587</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08592198716871156</v>
+        <v>0.1259894137649353</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01334665237608277</v>
+        <v>0.0006563048878088934</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01489332051645191</v>
+        <v>0.001409167800782404</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.005035468456678939</v>
+        <v>0.01504097883440885</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.01656768706508225</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-0.005105870537936747</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1563,6 +1643,9 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1571,28 +1654,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01374732341237794</v>
+        <v>0.01514840996396354</v>
       </c>
       <c r="C28" t="n">
-        <v>0.009851672616021072</v>
+        <v>0.01164976114878598</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07341986044994731</v>
+        <v>0.1123531153037558</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01349417633417045</v>
+        <v>0.000668465693729217</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01482113964522543</v>
+        <v>0.001447038825692313</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.004123510646806241</v>
+        <v>0.01519891378887258</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.01650007400867066</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-0.004123504320516577</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1604,6 +1687,9 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1612,28 +1698,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01377085138222853</v>
+        <v>0.01523345365538924</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01029855549717043</v>
+        <v>0.01214337930528626</v>
       </c>
       <c r="D29" t="n">
-        <v>0.05849541906496853</v>
+        <v>0.09608472431059721</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01357970445874785</v>
+        <v>0.0006813154233009868</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01474885532056039</v>
+        <v>0.001485122459830786</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.003682684288928312</v>
+        <v>0.01529294507514866</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.01643195949128932</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-0.00363827577824581</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1645,6 +1731,9 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1653,28 +1742,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01378112062608922</v>
+        <v>0.01528400172473182</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01097667821776549</v>
+        <v>0.0129122468843423</v>
       </c>
       <c r="D30" t="n">
-        <v>0.04986929532237559</v>
+        <v>0.08593723356408597</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0136629358405501</v>
+        <v>0.0006947142059709952</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01469065622986914</v>
+        <v>0.001523332464142616</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.003166617787792281</v>
+        <v>0.01539234338499114</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.01638072443743268</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>-0.003032390337245729</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1686,6 +1775,9 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,28 +1786,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01383871541410342</v>
+        <v>0.01537884029468238</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01136325725739569</v>
+        <v>0.01335974594068916</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04382898666558856</v>
+        <v>0.07882997002877806</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01376233331339245</v>
+        <v>0.000708722596484111</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01464207823316575</v>
+        <v>0.001561779564879322</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.002724111478994604</v>
+        <v>0.0155125349937813</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.01634052428090702</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-0.002524695514632922</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1727,6 +1819,9 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1735,28 +1830,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01387209877145222</v>
+        <v>0.01545833371225162</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0117339873201077</v>
+        <v>0.01380944426314067</v>
       </c>
       <c r="D32" t="n">
-        <v>0.03642262549598693</v>
+        <v>0.07068241163464772</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01382886937056845</v>
+        <v>0.000723259771707813</v>
       </c>
       <c r="F32" t="n">
-        <v>0.014596120529838</v>
+        <v>0.001600425399159951</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.002401056761060621</v>
+        <v>0.01559996289430243</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.0163039849984619</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-0.002142709690507985</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1768,6 +1863,9 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1776,28 +1874,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0139104275890651</v>
+        <v>0.01553199980704953</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01213585506789521</v>
+        <v>0.01428863019648803</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03005803066298702</v>
+        <v>0.06353223676606023</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01389213626575937</v>
+        <v>0.000738274465874642</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01455942218531945</v>
+        <v>0.001639255398677575</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.002027259992956828</v>
+        <v>0.01568808446762136</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.01627845532743242</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>-0.001700428253983621</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1809,6 +1907,9 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_shortage.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_shortage.xlsx
@@ -730,28 +730,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04195171580355857</v>
+        <v>0.04060385171748525</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2297134114570111</v>
+        <v>-0.2301982695665198</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2898132244907143</v>
+        <v>0.289923993851836</v>
       </c>
       <c r="E7" t="n">
-        <v>8.739940792408035e-05</v>
+        <v>8.459135774476093e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0001048792895088964</v>
+        <v>0.0001015096292937131</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1422235289618396</v>
+        <v>0.1421870067386307</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03038050734800638</v>
+        <v>0.0303657815676025</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2030094665839532</v>
+        <v>0.2028882520565761</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -774,28 +774,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06017901431066482</v>
+        <v>0.06073348391763357</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2617593699536004</v>
+        <v>0.2616746549391739</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5719087711682636</v>
+        <v>0.5716485491914781</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0002038688088863506</v>
+        <v>0.0002026500578904385</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0002553268252855584</v>
+        <v>0.0002533433390877971</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02833005715894847</v>
+        <v>0.0282494280205775</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01946722547268143</v>
+        <v>0.01944726555140076</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2684493090723534</v>
+        <v>0.2683069157913696</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -818,28 +818,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04848974659380253</v>
+        <v>0.04862821146281884</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1638631461518752</v>
+        <v>0.1638799589348715</v>
       </c>
       <c r="D9" t="n">
-        <v>2.444569816988664</v>
+        <v>2.444569343054884</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0002844565284494998</v>
+        <v>0.0002836930132290499</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0003765511917700648</v>
+        <v>0.0003749138677448442</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06324146310830375</v>
+        <v>0.06320937600719777</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03109687544785907</v>
+        <v>0.03108515380909132</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3094150956103222</v>
+        <v>0.3092769055250874</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07539903946780713</v>
+        <v>0.073573306146326</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1078907429676302</v>
+        <v>-0.1086540097562608</v>
       </c>
       <c r="D10" t="n">
-        <v>2.678671293246409</v>
+        <v>2.679053145589892</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0004204036685502379</v>
+        <v>0.0004156678031954354</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0005650487904395826</v>
+        <v>0.0005588471331106591</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03504591379073607</v>
+        <v>0.03497790652887477</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02162464985340131</v>
+        <v>0.02159064928143505</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.05646593930691772</v>
+        <v>-0.05679494608931013</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03408552663305311</v>
+        <v>0.03830672770718994</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07753846042161035</v>
+        <v>0.07864601537598513</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4459569355105933</v>
+        <v>0.4451555718413903</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0004550557366195836</v>
+        <v>0.0004602911602170692</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0006502626070222153</v>
+        <v>0.0006546139523786339</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02162046569246757</v>
+        <v>0.02158065877380828</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02048508893183175</v>
+        <v>0.0204812508937473</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.04340597057197565</v>
+        <v>-0.04330035186518835</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -950,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02808162799354178</v>
+        <v>0.02775066103642375</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008876993728155265</v>
+        <v>0.009474246064072146</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9269812851120358</v>
+        <v>0.9275004441500247</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0004775089150940346</v>
+        <v>0.0004815161934619351</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0007204666770060698</v>
+        <v>0.0007239906049696934</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03078546608905249</v>
+        <v>0.03095673841933988</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02292943050234113</v>
+        <v>0.02296338485997754</v>
       </c>
       <c r="I12" t="n">
-        <v>0.007266907174554194</v>
+        <v>0.007587124634089469</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -994,28 +994,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03182571791156414</v>
+        <v>0.03199721704861339</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03718226362219326</v>
+        <v>-0.03700967739015998</v>
       </c>
       <c r="D13" t="n">
-        <v>1.346815001956873</v>
+        <v>1.347292394995925</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0005106504423835329</v>
+        <v>0.0005147167997431796</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0008000309717849801</v>
+        <v>0.0008039836475912268</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01549204329876462</v>
+        <v>0.01561630112358887</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01936687787559399</v>
+        <v>0.01938965816225984</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.07790585121831822</v>
+        <v>-0.07759523243378866</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1038,28 +1038,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01988569662178888</v>
+        <v>0.0217703393371654</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02440094538178463</v>
+        <v>0.0255453518747427</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9027830328670087</v>
+        <v>0.9020086179910154</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0005172597082504661</v>
+        <v>0.0005253624443871628</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0008497452133394523</v>
+        <v>0.0008584094959341403</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01462128777577482</v>
+        <v>0.01476484326441997</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01962203923501579</v>
+        <v>0.01967375064457929</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.01663737981339683</v>
+        <v>-0.01581392254771477</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02476575486882537</v>
+        <v>0.02436959053787274</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01652365631117228</v>
+        <v>-0.01597560344173976</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4564927937974595</v>
+        <v>0.4569048264027555</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0005378045171780632</v>
+        <v>0.0005444088192509986</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0009116596005115157</v>
+        <v>0.0009193334722788221</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01849103133458889</v>
+        <v>0.01871603629938116</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01952881675588819</v>
+        <v>0.01959973719032342</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.02672746089832398</v>
+        <v>-0.0260720794970795</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02106608728653238</v>
+        <v>0.02165591382659432</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.001601414242743571</v>
+        <v>-0.001208842741700911</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6454670828016646</v>
+        <v>0.6457377522263753</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0005511050863681012</v>
+        <v>0.0005586453635629854</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0009643248187278467</v>
+        <v>0.0009734732568453079</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01337006636870245</v>
+        <v>0.01354247903990078</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01839982755661554</v>
+        <v>0.01846424453778507</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03851206328763361</v>
+        <v>-0.03811893134405436</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1170,28 +1170,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01809760263478323</v>
+        <v>0.0187501141356795</v>
       </c>
       <c r="C17" t="n">
-        <v>0.005308478258821379</v>
+        <v>0.006053967288546416</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6254253261766005</v>
+        <v>0.6252437735727376</v>
       </c>
       <c r="E17" t="n">
-        <v>0.000559077274645368</v>
+        <v>0.0005676756083457976</v>
       </c>
       <c r="F17" t="n">
-        <v>0.001009568825314805</v>
+        <v>0.001020348542184507</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01455022549069578</v>
+        <v>0.01473279316060946</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01858064102131974</v>
+        <v>0.01866165048405443</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01259595502709208</v>
+        <v>-0.01201258287862676</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1214,28 +1214,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01917641423982546</v>
+        <v>0.01904397670930858</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.006102021045958032</v>
+        <v>-0.00580279755048406</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4094998494804828</v>
+        <v>0.4097441936897626</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0005713113508187592</v>
+        <v>0.0005790922824650062</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001057509860914368</v>
+        <v>0.001067958483957778</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01438641645398581</v>
+        <v>0.01457803497394919</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0180551820468208</v>
+        <v>0.01814079612250659</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.01935094111103794</v>
+        <v>-0.01899816237576455</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1258,28 +1258,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01686918653025805</v>
+        <v>0.01732007677864626</v>
       </c>
       <c r="C19" t="n">
-        <v>0.005375245912070571</v>
+        <v>0.005708525885129701</v>
       </c>
       <c r="D19" t="n">
-        <v>0.334550441368078</v>
+        <v>0.3347321519676276</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0005794018550808264</v>
+        <v>0.0005878151147220874</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001099682827240014</v>
+        <v>0.001111258675904394</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01376445169642299</v>
+        <v>0.0139119497629891</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01772578662387206</v>
+        <v>0.01780845522691527</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.0177459591140413</v>
+        <v>-0.01752832307900837</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1302,28 +1302,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01640733598523521</v>
+        <v>0.01662530302001547</v>
       </c>
       <c r="C20" t="n">
-        <v>0.004591183881140559</v>
+        <v>0.004997632173210292</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3637962985581185</v>
+        <v>0.3639237058348384</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0005877665005679188</v>
+        <v>0.0005962531947841194</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001140701167203101</v>
+        <v>0.001152821933454433</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01465490186053184</v>
+        <v>0.01481139498844394</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01767812258456041</v>
+        <v>0.01776931705932426</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.01107684461718383</v>
+        <v>-0.01080314709080019</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1346,28 +1346,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01616158069128264</v>
+        <v>0.01624195678602924</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002668098468980225</v>
+        <v>0.002856994030702035</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3014884467760539</v>
+        <v>0.3017214101412239</v>
       </c>
       <c r="E21" t="n">
-        <v>0.000596761929681319</v>
+        <v>0.0006050151824117328</v>
       </c>
       <c r="F21" t="n">
-        <v>0.001181105118931308</v>
+        <v>0.001193426825419506</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01423075657802861</v>
+        <v>0.01438008160626083</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01732866233723779</v>
+        <v>0.01741994113356282</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.01291709868663745</v>
+        <v>-0.01279270452596996</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1390,28 +1390,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0153205362366678</v>
+        <v>0.01556110717933837</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0076366205159167</v>
+        <v>0.007880212176054136</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2275658600278036</v>
+        <v>0.227758055086956</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0006048221621647511</v>
+        <v>0.0006132551908191226</v>
       </c>
       <c r="F22" t="n">
-        <v>0.001219406459522978</v>
+        <v>0.001232329593367851</v>
       </c>
       <c r="G22" t="n">
-        <v>0.014265350747762</v>
+        <v>0.01439270323649003</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01717291911873528</v>
+        <v>0.01726395708441291</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.009318629259458795</v>
+        <v>-0.009217193907675152</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1434,28 +1434,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01543780700078001</v>
+        <v>0.01553139287422535</v>
       </c>
       <c r="C23" t="n">
-        <v>0.007058318569027793</v>
+        <v>0.007277045354158917</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2096712874354043</v>
+        <v>0.209906301616439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0006141704669545783</v>
+        <v>0.0006224435060499276</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001258000977024928</v>
+        <v>0.001271158075553415</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01470950850644495</v>
+        <v>0.01483916970711414</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01705570115022621</v>
+        <v>0.01715016582349552</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.008275896337656675</v>
+        <v>-0.008158978829457753</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1478,28 +1478,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01520439050839665</v>
+        <v>0.01531412319724861</v>
       </c>
       <c r="C24" t="n">
-        <v>0.007976048120217686</v>
+        <v>0.008113060314117165</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1971049422950687</v>
+        <v>0.1973531703256224</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0006238257283027191</v>
+        <v>0.0006320014743020471</v>
       </c>
       <c r="F24" t="n">
-        <v>0.001296011953295919</v>
+        <v>0.001309443383546537</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01464557054616685</v>
+        <v>0.01476582985588858</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01686981665235186</v>
+        <v>0.01696340694852409</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.00832013044199624</v>
+        <v>-0.008279567019685874</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1522,28 +1522,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01502301128014476</v>
+        <v>0.01514725893690122</v>
       </c>
       <c r="C25" t="n">
-        <v>0.009594441834610105</v>
+        <v>0.00975963911515651</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1615597456116979</v>
+        <v>0.1617966110292893</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0006338256208154525</v>
+        <v>0.0006419583874091209</v>
       </c>
       <c r="F25" t="n">
-        <v>0.001333569481496281</v>
+        <v>0.00134731153088879</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01479757637156512</v>
+        <v>0.01490927912744964</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01676815670777526</v>
+        <v>0.01686208784172943</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.006164399318085538</v>
+        <v>-0.006122592366389144</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1566,28 +1566,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01513831947708381</v>
+        <v>0.01520176818041368</v>
       </c>
       <c r="C26" t="n">
-        <v>0.009873262602419136</v>
+        <v>0.00999986697553896</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1363411450588683</v>
+        <v>0.136607745868697</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0006448045627278355</v>
+        <v>0.0006527642955457489</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00137141528018899</v>
+        <v>0.001385315951339824</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01495143700104583</v>
+        <v>0.01506182930289686</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01666368648432691</v>
+        <v>0.01675834304881503</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.005639832966193315</v>
+        <v>-0.005605300296747141</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1610,28 +1610,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01510100823736548</v>
+        <v>0.01518490557722811</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01097079931678587</v>
+        <v>0.01107316146077727</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1259894137649353</v>
+        <v>0.1262550989038071</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0006563048878088934</v>
+        <v>0.0006641601533546338</v>
       </c>
       <c r="F27" t="n">
-        <v>0.001409167800782404</v>
+        <v>0.001423278215282894</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01504097883440885</v>
+        <v>0.01514388903058974</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01656768706508225</v>
+        <v>0.01666139836025612</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.005105870537936747</v>
+        <v>-0.005102737740716663</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01514840996396354</v>
+        <v>0.01522193703728751</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01164976114878598</v>
+        <v>0.01175882460339437</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1123531153037558</v>
+        <v>0.1126180294823789</v>
       </c>
       <c r="E28" t="n">
-        <v>0.000668465693729217</v>
+        <v>0.0006762070331349691</v>
       </c>
       <c r="F28" t="n">
-        <v>0.001447038825692313</v>
+        <v>0.001461333057876113</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01519891378887258</v>
+        <v>0.01529818118776916</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01650007400867066</v>
+        <v>0.01659377264057757</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.004123504320516577</v>
+        <v>-0.004117956817171803</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1698,28 +1698,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01523345365538924</v>
+        <v>0.01529126364202737</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01214337930528626</v>
+        <v>0.01222876883412076</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09608472431059721</v>
+        <v>0.09636175304141031</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0006813154233009868</v>
+        <v>0.0006889196496600362</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001485122459830786</v>
+        <v>0.001499561216981181</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01529294507514866</v>
+        <v>0.01539004211861384</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01643195949128932</v>
+        <v>0.01652530422168373</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.00363827577824581</v>
+        <v>-0.003644123658991801</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1742,28 +1742,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01528400172473182</v>
+        <v>0.0153490952135224</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0129122468843423</v>
+        <v>0.01299274696026569</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08593723356408597</v>
+        <v>0.08621302592341404</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0006947142059709952</v>
+        <v>0.0007022133398423304</v>
       </c>
       <c r="F30" t="n">
-        <v>0.001523332464142616</v>
+        <v>0.001537933955014987</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01539234338499114</v>
+        <v>0.01548523196457469</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01638072443743268</v>
+        <v>0.01647329170312086</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.003032390337245729</v>
+        <v>-0.003048453838257338</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1786,28 +1786,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01537884029468238</v>
+        <v>0.01543720438560982</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01335974594068916</v>
+        <v>0.013439164548625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07882997002877806</v>
+        <v>0.07910647891828432</v>
       </c>
       <c r="E31" t="n">
-        <v>0.000708722596484111</v>
+        <v>0.0007161128057794765</v>
       </c>
       <c r="F31" t="n">
-        <v>0.001561779564879322</v>
+        <v>0.001576526965979012</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0155125349937813</v>
+        <v>0.01560361988903255</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01634052428090702</v>
+        <v>0.01643274543652819</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.002524695514632922</v>
+        <v>-0.002539012793988289</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1830,28 +1830,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01545833371225162</v>
+        <v>0.01551623335207538</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01380944426314067</v>
+        <v>0.01387950440626337</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07068241163464772</v>
+        <v>0.0709613536820114</v>
       </c>
       <c r="E32" t="n">
-        <v>0.000723259771707813</v>
+        <v>0.0007305516669287081</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001600425399159951</v>
+        <v>0.0016153175493592</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01559996289430243</v>
+        <v>0.01568930718983976</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0163039849984619</v>
+        <v>0.01639560905261848</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.002142709690507985</v>
+        <v>-0.002163135000450449</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1874,28 +1874,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01553199980704953</v>
+        <v>0.01559239387993411</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01428863019648803</v>
+        <v>0.01435935799967005</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06353223676606023</v>
+        <v>0.0638105278009852</v>
       </c>
       <c r="E33" t="n">
-        <v>0.000738274465874642</v>
+        <v>0.0007454847562651513</v>
       </c>
       <c r="F33" t="n">
-        <v>0.001639255398677575</v>
+        <v>0.001654298534059036</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01568808446762136</v>
+        <v>0.01577559803698775</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01627845532743242</v>
+        <v>0.01636949264905949</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.001700428253983621</v>
+        <v>-0.001722348639907809</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
